--- a/resultados/result.xlsx
+++ b/resultados/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>D</t>
   </si>
@@ -74,10 +74,7 @@
     <t>Resources Recall (Ration of retrieved resources by retrieved sf)</t>
   </si>
   <si>
-    <t>Verifications</t>
-  </si>
-  <si>
-    <t>Linha21 – Linha22 (Deve ser maior ou igual a zero)</t>
+    <t>Número de anotações L26 + L27</t>
   </si>
 </sst>
 </file>
@@ -87,7 +84,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -131,13 +128,6 @@
       <charset val="1"/>
       <family val="2"/>
       <color rgb="00222222"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00FF0000"/>
       <sz val="12"/>
     </font>
   </fonts>
@@ -278,7 +268,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
@@ -325,7 +315,6 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -406,7 +395,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A16" activeCellId="0" pane="topLeft" sqref="A16"/>
+      <selection activeCell="A33" activeCellId="0" pane="topLeft" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -1381,9 +1370,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="A32" s="24"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -1399,55 +1386,55 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="0" t="n">
-        <f aca="false">B25-B26</f>
-        <v>93</v>
+        <f aca="false">B26+B27</f>
+        <v>185</v>
       </c>
       <c r="C33" s="0" t="n">
-        <f aca="false">C25-C26</f>
-        <v>60</v>
+        <f aca="false">C26+C27</f>
+        <v>84</v>
       </c>
       <c r="D33" s="0" t="n">
-        <f aca="false">D25-D26</f>
-        <v>78</v>
+        <f aca="false">D26+D27</f>
+        <v>267</v>
       </c>
       <c r="E33" s="0" t="n">
-        <f aca="false">E25-E26</f>
-        <v>4</v>
+        <f aca="false">E26+E27</f>
+        <v>255</v>
       </c>
       <c r="F33" s="0" t="n">
-        <f aca="false">F25-F26</f>
-        <v>717</v>
+        <f aca="false">F26+F27</f>
+        <v>15270</v>
       </c>
       <c r="G33" s="0" t="n">
-        <f aca="false">G25-G26</f>
-        <v>468</v>
-      </c>
-      <c r="H33" s="26" t="n">
-        <f aca="false">H25-H26</f>
-        <v>-453</v>
-      </c>
-      <c r="I33" s="26" t="n">
-        <f aca="false">I25-I26</f>
-        <v>-5601</v>
+        <f aca="false">G26+G27</f>
+        <v>4977</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">H26+H27</f>
+        <v>19189</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">I26+I27</f>
+        <v>19344</v>
       </c>
       <c r="J33" s="0" t="n">
-        <f aca="false">J25-J26</f>
-        <v>334</v>
+        <f aca="false">J26+J27</f>
+        <v>1642</v>
       </c>
       <c r="K33" s="0" t="n">
-        <f aca="false">K25-K26</f>
-        <v>187</v>
+        <f aca="false">K26+K27</f>
+        <v>618</v>
       </c>
       <c r="L33" s="0" t="n">
-        <f aca="false">L25-L26</f>
-        <v>81</v>
-      </c>
-      <c r="M33" s="26" t="n">
-        <f aca="false">M25-M26</f>
-        <v>-567</v>
+        <f aca="false">L26+L27</f>
+        <v>2387</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <f aca="false">M26+M27</f>
+        <v>2386</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/result.xlsx
+++ b/resultados/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>D</t>
   </si>
@@ -74,7 +74,13 @@
     <t>Resources Recall (Ration of retrieved resources by retrieved sf)</t>
   </si>
   <si>
+    <t># of GS annotations that the sf is at the CM (sem repetição)</t>
+  </si>
+  <si>
     <t>Número de anotações L26 + L27</t>
+  </si>
+  <si>
+    <t>L26 / L33</t>
   </si>
 </sst>
 </file>
@@ -312,7 +318,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -392,16 +398,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A33" activeCellId="0" pane="topLeft" sqref="A33"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="M36" activeCellId="0" pane="topLeft" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="80.9882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.2745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81.043137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.278431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5098039215686"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1"/>
@@ -1108,7 +1114,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>132</v>
@@ -1386,7 +1392,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">B26+B27</f>
@@ -1435,6 +1441,59 @@
       <c r="M33" s="0" t="n">
         <f aca="false">M26+M27</f>
         <v>2386</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="34">
+      <c r="A34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">B26/B33</f>
+        <v>0.210810810810811</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">C26/C33</f>
+        <v>0.130952380952381</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">D26/D33</f>
+        <v>0.423220973782771</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">E26/E33</f>
+        <v>0.76078431372549</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">F26/F33</f>
+        <v>0.113097576948265</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">G26/G33</f>
+        <v>0.403455897126783</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">H26/H33</f>
+        <v>0.212100682682787</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">I26/I33</f>
+        <v>0.530397022332506</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">J26/J33</f>
+        <v>0.171132764920828</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">K26/K33</f>
+        <v>0.294498381877023</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">L26/L33</f>
+        <v>0.388772517804776</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <f aca="false">M26/M33</f>
+        <v>0.673093042749371</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/result.xlsx
+++ b/resultados/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>D</t>
   </si>
@@ -80,7 +80,10 @@
     <t>Número de anotações L26 + L27</t>
   </si>
   <si>
-    <t>L26 / L33</t>
+    <t>Resources Recal considerando repetições TP (L26 / L33)</t>
+  </si>
+  <si>
+    <t>Resources Recal considerando repetições FP L27 / L33</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="M36" activeCellId="0" pane="topLeft" sqref="M36"/>
+      <selection activeCell="A35" activeCellId="0" pane="topLeft" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -1443,7 +1446,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.85" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
         <v>21</v>
       </c>
@@ -1494,6 +1497,59 @@
       <c r="M34" s="0" t="n">
         <f aca="false">M26/M33</f>
         <v>0.673093042749371</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.85" outlineLevel="0" r="35">
+      <c r="A35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <f aca="false">B27/B33</f>
+        <v>0.789189189189189</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <f aca="false">C27/C33</f>
+        <v>0.869047619047619</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">D27/D33</f>
+        <v>0.576779026217228</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">E27/E33</f>
+        <v>0.23921568627451</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">F27/F33</f>
+        <v>0.886902423051735</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">G27/G33</f>
+        <v>0.596544102873217</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <f aca="false">H27/H33</f>
+        <v>0.787899317317213</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <f aca="false">I27/I33</f>
+        <v>0.469602977667494</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">J27/J33</f>
+        <v>0.828867235079172</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">K27/K33</f>
+        <v>0.705501618122977</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <f aca="false">L27/L33</f>
+        <v>0.611227482195224</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <f aca="false">M27/M33</f>
+        <v>0.326906957250629</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/result.xlsx
+++ b/resultados/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>D</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t># of GS annotations that the sf is at the CM (sem repetição)</t>
+  </si>
+  <si>
+    <t># of GS annotations that the sf is NOT at the CM (sem repetição)</t>
   </si>
   <si>
     <t>Número de anotações L26 + L27</t>
@@ -403,14 +406,14 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A35" activeCellId="0" pane="topLeft" sqref="A35"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="A34" activeCellId="0" pane="topLeft" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81.043137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.278431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81.1019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.2862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5176470588235"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1"/>
@@ -1240,7 +1243,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>447</v>
@@ -1395,7 +1398,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">B26+B27</f>
@@ -1446,9 +1449,9 @@
         <v>2386</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.85" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.85" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34" s="0" t="n">
         <f aca="false">B26/B33</f>
@@ -1499,9 +1502,9 @@
         <v>0.673093042749371</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.85" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.85" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">B27/B33</f>
